--- a/Data/RelativeExpression.xlsx
+++ b/Data/RelativeExpression.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Slaym\Documents\GitHub\Sociovirology_Lab\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{021E54EC-0CF1-43DB-A6E8-7C044F2F305F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71614882-6081-4925-8C98-160A71CCCB9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1D7961C4-639F-4278-AE41-20282CB18FB3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{1D7961C4-639F-4278-AE41-20282CB18FB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="12">
   <si>
     <t>6K2-GFP</t>
   </si>
@@ -63,16 +64,32 @@
   </si>
   <si>
     <t>Relative_Expression</t>
+  </si>
+  <si>
+    <t>DCq</t>
+  </si>
+  <si>
+    <t>DDCq</t>
+  </si>
+  <si>
+    <t>Sample</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -98,8 +115,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,8 +454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C911D467-33D6-4E41-9852-0AE8000F9773}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="A2:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -555,4 +573,495 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7BBC82E-D47B-4603-AFC9-FAD351C90F84}">
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:G1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>4.8310199999999996</v>
+      </c>
+      <c r="E2">
+        <v>1.9399</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>0.57191000000000003</v>
+      </c>
+      <c r="E3">
+        <v>2.7603800000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0.36193999999999998</v>
+      </c>
+      <c r="E4">
+        <v>0.55557999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>4.0210000000000003E-2</v>
+      </c>
+      <c r="E5">
+        <v>6.6430000000000003E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>0.17848</v>
+      </c>
+      <c r="E6">
+        <v>0.55662999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>0.33088000000000001</v>
+      </c>
+      <c r="E7">
+        <v>0.19644</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>1.01197</v>
+      </c>
+      <c r="E8">
+        <v>0.33083000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>2.529E-2</v>
+      </c>
+      <c r="E9">
+        <v>4.4089999999999997E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0.87643000000000004</v>
+      </c>
+      <c r="E10">
+        <v>1.3453299999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>0.33928999999999998</v>
+      </c>
+      <c r="E11">
+        <v>1.6376299999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>3.3628800000000001</v>
+      </c>
+      <c r="E12">
+        <v>1.35036</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>3.6420000000000001E-2</v>
+      </c>
+      <c r="E13">
+        <v>6.0159999999999998E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>3.705E-2</v>
+      </c>
+      <c r="E14">
+        <v>0.11552999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>0.10735</v>
+      </c>
+      <c r="E15">
+        <v>6.3740000000000005E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>0.28719</v>
+      </c>
+      <c r="E16">
+        <v>9.3890000000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>8.6700000000000006E-3</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1.511E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>6.2599999999999999E-3</v>
+      </c>
+      <c r="E18" s="1">
+        <v>9.4599999999999997E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>3.5400000000000002E-3</v>
+      </c>
+      <c r="E19" s="1">
+        <v>6.3E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0.25905</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.39763999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>7.0529999999999995E-2</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.34044000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>1.6119300000000001</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.64727000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>0.61921000000000004</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1.0229999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>0.11536</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.35976000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>3.79772</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2.2546599999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <v>3.6863000000000001</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1.2051099999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>2.4000000000000001E-4</v>
+      </c>
+      <c r="E27" s="1">
+        <v>3.6000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="E28" s="1">
+        <v>4.4000000000000002E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>